--- a/20200617_R2048_BNDFWD_Treasury.xlsx
+++ b/20200617_R2048_BNDFWD_Treasury.xlsx
@@ -12,6 +12,9 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
